--- a/data/trans_orig/P19-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E25A10F-5FFF-4839-922E-FED6498B2586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29619FED-AB3D-41CE-A999-2A01A605B023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B374A3EC-FCF7-4994-ABB8-F9C5B12B37D8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3930E882-E6B2-4197-B5E6-1A21338ACCBF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="492">
   <si>
     <t>Población según si en los últimos 6 meses han ido al dentista en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>24,89%</t>
   </si>
   <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
   </si>
   <si>
     <t>40,27%</t>
   </si>
   <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
   </si>
   <si>
     <t>32,37%</t>
   </si>
   <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>75,11%</t>
   </si>
   <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
   </si>
   <si>
     <t>59,73%</t>
   </si>
   <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
   </si>
   <si>
     <t>67,63%</t>
   </si>
   <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>27,12%</t>
   </si>
   <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
   </si>
   <si>
     <t>33,41%</t>
   </si>
   <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
   </si>
   <si>
     <t>30,01%</t>
   </si>
   <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
   </si>
   <si>
     <t>72,88%</t>
   </si>
   <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
   </si>
   <si>
     <t>66,59%</t>
   </si>
   <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
   </si>
   <si>
     <t>69,99%</t>
   </si>
   <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,55 +197,55 @@
     <t>26,07%</t>
   </si>
   <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
   </si>
   <si>
     <t>33,04%</t>
   </si>
   <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
   </si>
   <si>
     <t>29,69%</t>
   </si>
   <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
   </si>
   <si>
     <t>73,93%</t>
   </si>
   <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
   </si>
   <si>
     <t>66,96%</t>
   </si>
   <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
   </si>
   <si>
     <t>70,31%</t>
   </si>
   <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -254,49 +254,55 @@
     <t>27,21%</t>
   </si>
   <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
   </si>
   <si>
     <t>37,35%</t>
   </si>
   <si>
-    <t>41,87%</t>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
   </si>
   <si>
     <t>32,26%</t>
   </si>
   <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
   </si>
   <si>
     <t>72,79%</t>
   </si>
   <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
   </si>
   <si>
     <t>62,65%</t>
   </si>
   <si>
-    <t>58,13%</t>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
   </si>
   <si>
     <t>67,74%</t>
   </si>
   <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -305,1240 +311,1210 @@
     <t>24,43%</t>
   </si>
   <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 6 meses han ido al dentista en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 6 meses han ido al dentista en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
     <t>20,01%</t>
   </si>
   <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
   </si>
   <si>
     <t>79,99%</t>
   </si>
   <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 6 meses han ido al dentista en 2023 (Tasa respuesta: 99,11%)</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
   </si>
   <si>
     <t>21,08%</t>
   </si>
   <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
   </si>
   <si>
     <t>78,92%</t>
   </si>
   <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 6 meses han ido al dentista en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 6 meses han ido al dentista en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 6 meses han ido al dentista en 2023 (Tasa respuesta: 99,11%)</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
   </si>
   <si>
     <t>82,5%</t>
   </si>
   <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
   </si>
   <si>
     <t>81,06%</t>
   </si>
   <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
   </si>
   <si>
     <t>26,24%</t>
   </si>
   <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
   </si>
   <si>
     <t>73,76%</t>
   </si>
   <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
   </si>
 </sst>
 </file>
@@ -1950,7 +1926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E7A71D-9535-4999-91E1-81435EE86DF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA47101-B9FB-40C1-BF49-5837CDA9585E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2557,10 +2533,10 @@
         <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>318</v>
@@ -2569,13 +2545,13 @@
         <v>333561</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2590,13 +2566,13 @@
         <v>377248</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>315</v>
@@ -2605,13 +2581,13 @@
         <v>323068</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>667</v>
@@ -2620,13 +2596,13 @@
         <v>700316</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,7 +2658,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2694,13 +2670,13 @@
         <v>94469</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>118</v>
@@ -2709,13 +2685,13 @@
         <v>120405</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>213</v>
@@ -2727,10 +2703,10 @@
         <v>70</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2745,13 +2721,13 @@
         <v>292241</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>277</v>
@@ -2760,13 +2736,13 @@
         <v>282656</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>574</v>
@@ -2775,13 +2751,13 @@
         <v>574896</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,7 +2813,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2849,13 +2825,13 @@
         <v>90525</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>120</v>
@@ -2864,13 +2840,13 @@
         <v>120871</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>215</v>
@@ -2879,13 +2855,13 @@
         <v>211395</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2900,13 +2876,13 @@
         <v>411941</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>541</v>
@@ -2915,13 +2891,13 @@
         <v>555971</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>969</v>
@@ -2930,13 +2906,13 @@
         <v>967913</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,13 +2980,13 @@
         <v>814918</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>1036</v>
@@ -3019,13 +2995,13 @@
         <v>1058996</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="M22" s="7">
         <v>1839</v>
@@ -3034,13 +3010,13 @@
         <v>1873914</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,13 +3031,13 @@
         <v>2460713</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
         <v>2260</v>
@@ -3070,10 +3046,10 @@
         <v>2319276</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>136</v>
@@ -3169,7 +3145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB070A2-2B46-431F-96BE-37D309695782}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EAD7C44-357F-4E5E-AA16-EF5B5B965D2C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3293,13 +3269,13 @@
         <v>137606</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H4" s="7">
         <v>158</v>
@@ -3308,13 +3284,13 @@
         <v>162923</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M4" s="7">
         <v>293</v>
@@ -3323,13 +3299,13 @@
         <v>300530</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3344,13 +3320,13 @@
         <v>316540</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H5" s="7">
         <v>263</v>
@@ -3359,13 +3335,13 @@
         <v>267307</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M5" s="7">
         <v>574</v>
@@ -3374,13 +3350,13 @@
         <v>583846</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,13 +3424,13 @@
         <v>203047</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H7" s="7">
         <v>191</v>
@@ -3463,13 +3439,13 @@
         <v>204336</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M7" s="7">
         <v>386</v>
@@ -3478,13 +3454,13 @@
         <v>407383</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,13 +3475,13 @@
         <v>482890</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H8" s="7">
         <v>380</v>
@@ -3514,13 +3490,13 @@
         <v>405919</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M8" s="7">
         <v>851</v>
@@ -3529,13 +3505,13 @@
         <v>888810</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,13 +3579,13 @@
         <v>176131</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>76</v>
+        <v>180</v>
       </c>
       <c r="H10" s="7">
         <v>229</v>
@@ -3618,13 +3594,13 @@
         <v>243281</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>34</v>
+        <v>182</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M10" s="7">
         <v>398</v>
@@ -3633,13 +3609,13 @@
         <v>419412</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3654,13 +3630,13 @@
         <v>505732</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>85</v>
+        <v>188</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="H11" s="7">
         <v>438</v>
@@ -3669,13 +3645,13 @@
         <v>467569</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="M11" s="7">
         <v>920</v>
@@ -3684,13 +3660,13 @@
         <v>973300</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,13 +3734,13 @@
         <v>160627</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="H13" s="7">
         <v>172</v>
@@ -3773,13 +3749,13 @@
         <v>199968</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="M13" s="7">
         <v>316</v>
@@ -3788,13 +3764,13 @@
         <v>360595</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3809,13 +3785,13 @@
         <v>453990</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="H14" s="7">
         <v>366</v>
@@ -3824,28 +3800,28 @@
         <v>415267</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="M14" s="7">
         <v>770</v>
       </c>
       <c r="N14" s="7">
-        <v>869256</v>
+        <v>869257</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3887,7 +3863,7 @@
         <v>1086</v>
       </c>
       <c r="N15" s="7">
-        <v>1229851</v>
+        <v>1229852</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3901,7 +3877,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3913,13 +3889,13 @@
         <v>89348</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="H16" s="7">
         <v>114</v>
@@ -3928,13 +3904,13 @@
         <v>123968</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="M16" s="7">
         <v>197</v>
@@ -3943,13 +3919,13 @@
         <v>213316</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3964,13 +3940,13 @@
         <v>338718</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="H17" s="7">
         <v>292</v>
@@ -3979,13 +3955,13 @@
         <v>323832</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>189</v>
+        <v>226</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="M17" s="7">
         <v>601</v>
@@ -3994,13 +3970,13 @@
         <v>662550</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,7 +4032,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4068,13 +4044,13 @@
         <v>77837</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="H19" s="7">
         <v>132</v>
@@ -4083,13 +4059,13 @@
         <v>144380</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="M19" s="7">
         <v>203</v>
@@ -4098,13 +4074,13 @@
         <v>222217</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4119,13 +4095,13 @@
         <v>481800</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="H20" s="7">
         <v>562</v>
@@ -4134,13 +4110,13 @@
         <v>598595</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="M20" s="7">
         <v>995</v>
@@ -4149,13 +4125,13 @@
         <v>1080395</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4199,13 @@
         <v>844597</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="H22" s="7">
         <v>996</v>
@@ -4238,13 +4214,13 @@
         <v>1078857</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="M22" s="7">
         <v>1793</v>
@@ -4253,13 +4229,13 @@
         <v>1923453</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4274,13 +4250,13 @@
         <v>2579669</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="H23" s="7">
         <v>2301</v>
@@ -4289,13 +4265,13 @@
         <v>2478488</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="M23" s="7">
         <v>4711</v>
@@ -4304,13 +4280,13 @@
         <v>5058157</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4388,7 +4364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91CD2ED4-FBE0-4C25-944A-49666904F351}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0677D6-5513-4230-A630-AA08F7E4162E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4405,7 +4381,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4512,13 +4488,13 @@
         <v>162618</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="H4" s="7">
         <v>179</v>
@@ -4527,13 +4503,13 @@
         <v>174433</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="M4" s="7">
         <v>330</v>
@@ -4542,13 +4518,13 @@
         <v>337051</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,13 +4539,13 @@
         <v>256845</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="H5" s="7">
         <v>225</v>
@@ -4578,13 +4554,13 @@
         <v>221322</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="M5" s="7">
         <v>467</v>
@@ -4593,13 +4569,13 @@
         <v>478167</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,13 +4643,13 @@
         <v>205632</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="H7" s="7">
         <v>244</v>
@@ -4682,13 +4658,13 @@
         <v>238488</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="M7" s="7">
         <v>441</v>
@@ -4697,13 +4673,13 @@
         <v>444120</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4718,13 +4694,13 @@
         <v>384864</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="H8" s="7">
         <v>335</v>
@@ -4733,13 +4709,13 @@
         <v>325056</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="M8" s="7">
         <v>705</v>
@@ -4748,13 +4724,13 @@
         <v>709920</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4822,13 +4798,13 @@
         <v>190431</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="H10" s="7">
         <v>239</v>
@@ -4837,13 +4813,13 @@
         <v>238665</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>301</v>
+        <v>76</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="M10" s="7">
         <v>418</v>
@@ -4852,13 +4828,13 @@
         <v>429096</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>311</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,13 +4849,13 @@
         <v>478666</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="H11" s="7">
         <v>426</v>
@@ -4888,13 +4864,13 @@
         <v>422721</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>310</v>
+        <v>85</v>
       </c>
       <c r="M11" s="7">
         <v>885</v>
@@ -4903,13 +4879,13 @@
         <v>901387</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>61</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4977,13 +4953,13 @@
         <v>195393</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="H13" s="7">
         <v>215</v>
@@ -4992,13 +4968,13 @@
         <v>234660</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="M13" s="7">
         <v>389</v>
@@ -5007,13 +4983,13 @@
         <v>430053</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,13 +5004,13 @@
         <v>450655</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="H14" s="7">
         <v>387</v>
@@ -5043,28 +5019,28 @@
         <v>414417</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="M14" s="7">
         <v>795</v>
       </c>
       <c r="N14" s="7">
-        <v>865072</v>
+        <v>865073</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5106,7 +5082,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5120,7 +5096,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5132,13 +5108,13 @@
         <v>130808</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>331</v>
+        <v>222</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="H16" s="7">
         <v>133</v>
@@ -5147,13 +5123,13 @@
         <v>155126</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="M16" s="7">
         <v>248</v>
@@ -5162,13 +5138,13 @@
         <v>285934</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>338</v>
+        <v>126</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5183,13 +5159,13 @@
         <v>347110</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H17" s="7">
         <v>300</v>
@@ -5198,13 +5174,13 @@
         <v>341723</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="M17" s="7">
         <v>609</v>
@@ -5213,13 +5189,13 @@
         <v>688833</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>348</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5275,7 +5251,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5287,13 +5263,13 @@
         <v>101466</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>349</v>
+        <v>234</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H19" s="7">
         <v>156</v>
@@ -5302,13 +5278,13 @@
         <v>182799</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="M19" s="7">
         <v>261</v>
@@ -5338,13 +5314,13 @@
         <v>489862</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="H20" s="7">
         <v>499</v>
@@ -5353,13 +5329,13 @@
         <v>595132</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="M20" s="7">
         <v>1021</v>
@@ -5368,13 +5344,13 @@
         <v>1084994</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5442,13 +5418,13 @@
         <v>986348</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="H22" s="7">
         <v>1166</v>
@@ -5457,13 +5433,13 @@
         <v>1224171</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>315</v>
+        <v>368</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="M22" s="7">
         <v>2087</v>
@@ -5472,13 +5448,13 @@
         <v>2210518</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5493,13 +5469,13 @@
         <v>2408002</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="H23" s="7">
         <v>2172</v>
@@ -5508,7 +5484,7 @@
         <v>2320371</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>323</v>
+        <v>377</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>378</v>
@@ -5607,7 +5583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC1A4E4-7E4D-408E-A3F5-9070FA738B70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC2376A-6C6E-40B4-AFFD-5D43B32BB622}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5764,10 +5740,10 @@
         <v>389</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>242</v>
+        <v>390</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>390</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5782,7 +5758,7 @@
         <v>270975</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>391</v>
@@ -5815,10 +5791,10 @@
         <v>396</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5949,7 +5925,7 @@
         <v>311</v>
       </c>
       <c r="I8" s="7">
-        <v>333434</v>
+        <v>333433</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>410</v>
@@ -6000,7 +5976,7 @@
         <v>455</v>
       </c>
       <c r="I9" s="7">
-        <v>495890</v>
+        <v>495889</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6044,10 +6020,10 @@
         <v>416</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>418</v>
       </c>
       <c r="H10" s="7">
         <v>316</v>
@@ -6056,13 +6032,13 @@
         <v>225415</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="M10" s="7">
         <v>457</v>
@@ -6071,13 +6047,13 @@
         <v>379082</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>423</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>424</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6092,13 +6068,13 @@
         <v>401071</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>427</v>
+        <v>134</v>
       </c>
       <c r="H11" s="7">
         <v>525</v>
@@ -6107,13 +6083,13 @@
         <v>354782</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="M11" s="7">
         <v>927</v>
@@ -6122,13 +6098,13 @@
         <v>755854</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>432</v>
+        <v>333</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,13 +6172,13 @@
         <v>197829</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H13" s="7">
         <v>396</v>
@@ -6211,13 +6187,13 @@
         <v>270538</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="M13" s="7">
         <v>581</v>
@@ -6226,13 +6202,13 @@
         <v>468367</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6247,13 +6223,13 @@
         <v>523866</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="H14" s="7">
         <v>735</v>
@@ -6262,13 +6238,13 @@
         <v>470306</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="M14" s="7">
         <v>1213</v>
@@ -6277,13 +6253,13 @@
         <v>994173</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6339,7 +6315,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6351,13 +6327,13 @@
         <v>153538</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="H16" s="7">
         <v>333</v>
@@ -6366,13 +6342,13 @@
         <v>200351</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="M16" s="7">
         <v>502</v>
@@ -6381,13 +6357,13 @@
         <v>353888</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>181</v>
+        <v>455</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6402,13 +6378,13 @@
         <v>443631</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H17" s="7">
         <v>656</v>
@@ -6417,13 +6393,13 @@
         <v>386277</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="M17" s="7">
         <v>1147</v>
@@ -6432,13 +6408,13 @@
         <v>829909</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>189</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6494,7 +6470,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6506,13 +6482,13 @@
         <v>145065</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>109</v>
+        <v>466</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>469</v>
       </c>
       <c r="H19" s="7">
         <v>325</v>
@@ -6521,13 +6497,13 @@
         <v>177783</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>472</v>
       </c>
       <c r="M19" s="7">
         <v>537</v>
@@ -6536,13 +6512,13 @@
         <v>322848</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6557,7 +6533,7 @@
         <v>543201</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>475</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>476</v>
@@ -6664,10 +6640,10 @@
         <v>484</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>486</v>
       </c>
       <c r="H22" s="7">
         <v>1577</v>
@@ -6676,28 +6652,28 @@
         <v>1148307</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>487</v>
+        <v>34</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>489</v>
+        <v>59</v>
       </c>
       <c r="M22" s="7">
         <v>2410</v>
       </c>
       <c r="N22" s="7">
-        <v>2030185</v>
+        <v>2030186</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>491</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6712,13 +6688,13 @@
         <v>2478730</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>494</v>
+        <v>229</v>
       </c>
       <c r="H23" s="7">
         <v>3736</v>
@@ -6727,13 +6703,13 @@
         <v>2623681</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>495</v>
+        <v>42</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>496</v>
+        <v>67</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="M23" s="7">
         <v>6255</v>
@@ -6742,13 +6718,13 @@
         <v>5102411</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>498</v>
+        <v>66</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6790,7 +6766,7 @@
         <v>8665</v>
       </c>
       <c r="N24" s="7">
-        <v>7132596</v>
+        <v>7132597</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P19-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29619FED-AB3D-41CE-A999-2A01A605B023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D99F04A4-10DC-44BF-AAC4-7A2764ED215C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3930E882-E6B2-4197-B5E6-1A21338ACCBF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F0B8142E-8C4C-4B19-9A42-C83E74CBABA4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="498">
   <si>
     <t>Población según si en los últimos 6 meses han ido al dentista en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>24,89%</t>
   </si>
   <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
   </si>
   <si>
     <t>40,27%</t>
   </si>
   <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
   </si>
   <si>
     <t>32,37%</t>
   </si>
   <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>75,11%</t>
   </si>
   <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
   </si>
   <si>
     <t>59,73%</t>
   </si>
   <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
   </si>
   <si>
     <t>67,63%</t>
   </si>
   <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1375 +140,1393 @@
     <t>27,12%</t>
   </si>
   <si>
-    <t>23,77%</t>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 6 meses han ido al dentista en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 6 meses han ido al dentista en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 6 meses han ido al dentista en 2023 (Tasa respuesta: 99,11%)</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
   </si>
   <si>
     <t>30,44%</t>
   </si>
   <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
   </si>
   <si>
     <t>69,56%</t>
   </si>
   <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
     <t>67,84%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 6 meses han ido al dentista en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 6 meses han ido al dentista en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 6 meses han ido al dentista en 2023 (Tasa respuesta: 99,11%)</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
   </si>
   <si>
     <t>72,57%</t>
@@ -1926,7 +1944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA47101-B9FB-40C1-BF49-5837CDA9585E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73A28DC-2ABF-4DB9-B5D5-59152FB8414B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3001,7 +3019,7 @@
         <v>128</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>1839</v>
@@ -3010,13 +3028,13 @@
         <v>1873914</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3028,16 +3046,16 @@
         <v>2410</v>
       </c>
       <c r="D23" s="7">
-        <v>2460713</v>
+        <v>2460714</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>2260</v>
@@ -3046,13 +3064,13 @@
         <v>2319276</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>4670</v>
@@ -3061,13 +3079,13 @@
         <v>4779990</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,7 +3097,7 @@
         <v>3213</v>
       </c>
       <c r="D24" s="7">
-        <v>3275631</v>
+        <v>3275632</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3123,7 +3141,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3145,7 +3163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EAD7C44-357F-4E5E-AA16-EF5B5B965D2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684544E8-79E5-4EAD-9C13-EE06B76875D7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3162,7 +3180,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3269,13 +3287,13 @@
         <v>137606</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H4" s="7">
         <v>158</v>
@@ -3284,13 +3302,13 @@
         <v>162923</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M4" s="7">
         <v>293</v>
@@ -3299,13 +3317,13 @@
         <v>300530</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3320,13 +3338,13 @@
         <v>316540</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H5" s="7">
         <v>263</v>
@@ -3335,13 +3353,13 @@
         <v>267307</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M5" s="7">
         <v>574</v>
@@ -3350,13 +3368,13 @@
         <v>583846</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3424,13 +3442,13 @@
         <v>203047</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H7" s="7">
         <v>191</v>
@@ -3439,13 +3457,13 @@
         <v>204336</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>164</v>
+        <v>92</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M7" s="7">
         <v>386</v>
@@ -3454,13 +3472,13 @@
         <v>407383</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3475,13 +3493,13 @@
         <v>482890</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H8" s="7">
         <v>380</v>
@@ -3490,13 +3508,13 @@
         <v>405919</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>174</v>
+        <v>100</v>
       </c>
       <c r="M8" s="7">
         <v>851</v>
@@ -3597,10 +3615,10 @@
         <v>181</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M10" s="7">
         <v>398</v>
@@ -3609,13 +3627,13 @@
         <v>419412</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3630,13 +3648,13 @@
         <v>505732</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H11" s="7">
         <v>438</v>
@@ -3645,13 +3663,13 @@
         <v>467569</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>191</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>192</v>
+        <v>103</v>
       </c>
       <c r="M11" s="7">
         <v>920</v>
@@ -3660,13 +3678,13 @@
         <v>973300</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,13 +3752,13 @@
         <v>160627</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H13" s="7">
         <v>172</v>
@@ -3749,13 +3767,13 @@
         <v>199968</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M13" s="7">
         <v>316</v>
@@ -3764,13 +3782,13 @@
         <v>360595</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3785,13 +3803,13 @@
         <v>453990</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H14" s="7">
         <v>366</v>
@@ -3800,13 +3818,13 @@
         <v>415267</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="M14" s="7">
         <v>770</v>
@@ -3815,13 +3833,13 @@
         <v>869257</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3889,13 +3907,13 @@
         <v>89348</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H16" s="7">
         <v>114</v>
@@ -3904,13 +3922,13 @@
         <v>123968</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>219</v>
+        <v>40</v>
       </c>
       <c r="M16" s="7">
         <v>197</v>
@@ -3919,13 +3937,13 @@
         <v>213316</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3940,13 +3958,13 @@
         <v>338718</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H17" s="7">
         <v>292</v>
@@ -3955,13 +3973,13 @@
         <v>323832</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>227</v>
+        <v>48</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="M17" s="7">
         <v>601</v>
@@ -3970,13 +3988,13 @@
         <v>662550</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,13 +4062,13 @@
         <v>77837</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="H19" s="7">
         <v>132</v>
@@ -4059,13 +4077,13 @@
         <v>144380</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="M19" s="7">
         <v>203</v>
@@ -4074,13 +4092,13 @@
         <v>222217</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4095,13 +4113,13 @@
         <v>481800</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="H20" s="7">
         <v>562</v>
@@ -4110,13 +4128,13 @@
         <v>598595</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="M20" s="7">
         <v>995</v>
@@ -4125,13 +4143,13 @@
         <v>1080395</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,13 +4217,13 @@
         <v>844597</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="H22" s="7">
         <v>996</v>
@@ -4214,13 +4232,13 @@
         <v>1078857</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="M22" s="7">
         <v>1793</v>
@@ -4229,13 +4247,13 @@
         <v>1923453</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4250,13 +4268,13 @@
         <v>2579669</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H23" s="7">
         <v>2301</v>
@@ -4265,13 +4283,13 @@
         <v>2478488</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="M23" s="7">
         <v>4711</v>
@@ -4280,13 +4298,13 @@
         <v>5058157</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,7 +4360,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4364,7 +4382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0677D6-5513-4230-A630-AA08F7E4162E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A4E885-FD0F-450D-88CD-88D2B563F227}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4381,7 +4399,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4488,13 +4506,13 @@
         <v>162618</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H4" s="7">
         <v>179</v>
@@ -4503,13 +4521,13 @@
         <v>174433</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="M4" s="7">
         <v>330</v>
@@ -4518,13 +4536,13 @@
         <v>337051</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4539,13 +4557,13 @@
         <v>256845</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H5" s="7">
         <v>225</v>
@@ -4554,13 +4572,13 @@
         <v>221322</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="M5" s="7">
         <v>467</v>
@@ -4569,13 +4587,13 @@
         <v>478167</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4643,13 +4661,13 @@
         <v>205632</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H7" s="7">
         <v>244</v>
@@ -4658,13 +4676,13 @@
         <v>238488</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="M7" s="7">
         <v>441</v>
@@ -4673,13 +4691,13 @@
         <v>444120</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4694,13 +4712,13 @@
         <v>384864</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="H8" s="7">
         <v>335</v>
@@ -4709,13 +4727,13 @@
         <v>325056</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="M8" s="7">
         <v>705</v>
@@ -4724,13 +4742,13 @@
         <v>709920</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4798,13 +4816,13 @@
         <v>190431</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="H10" s="7">
         <v>239</v>
@@ -4813,13 +4831,13 @@
         <v>238665</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>76</v>
+        <v>303</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="M10" s="7">
         <v>418</v>
@@ -4828,13 +4846,13 @@
         <v>429096</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4849,13 +4867,13 @@
         <v>478666</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H11" s="7">
         <v>426</v>
@@ -4864,13 +4882,13 @@
         <v>422721</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>85</v>
+        <v>313</v>
       </c>
       <c r="M11" s="7">
         <v>885</v>
@@ -4879,13 +4897,13 @@
         <v>901387</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4953,13 +4971,13 @@
         <v>195393</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H13" s="7">
         <v>215</v>
@@ -4968,13 +4986,13 @@
         <v>234660</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="M13" s="7">
         <v>389</v>
@@ -4983,13 +5001,13 @@
         <v>430053</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5004,13 +5022,13 @@
         <v>450655</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H14" s="7">
         <v>387</v>
@@ -5019,28 +5037,28 @@
         <v>414417</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="M14" s="7">
         <v>795</v>
       </c>
       <c r="N14" s="7">
-        <v>865073</v>
+        <v>865072</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5082,7 +5100,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5108,13 +5126,13 @@
         <v>130808</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>222</v>
+        <v>335</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H16" s="7">
         <v>133</v>
@@ -5123,13 +5141,13 @@
         <v>155126</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="M16" s="7">
         <v>248</v>
@@ -5138,13 +5156,13 @@
         <v>285934</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>126</v>
+        <v>246</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5159,13 +5177,13 @@
         <v>347110</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>230</v>
+        <v>343</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="H17" s="7">
         <v>300</v>
@@ -5174,10 +5192,10 @@
         <v>341723</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>348</v>
@@ -5195,7 +5213,7 @@
         <v>350</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>133</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5263,13 +5281,13 @@
         <v>101466</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>351</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H19" s="7">
         <v>156</v>
@@ -5278,13 +5296,13 @@
         <v>182799</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="M19" s="7">
         <v>261</v>
@@ -5293,13 +5311,13 @@
         <v>284265</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5314,13 +5332,13 @@
         <v>489862</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>242</v>
+        <v>360</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="H20" s="7">
         <v>499</v>
@@ -5329,13 +5347,13 @@
         <v>595132</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="M20" s="7">
         <v>1021</v>
@@ -5344,13 +5362,13 @@
         <v>1084994</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5418,13 +5436,13 @@
         <v>986348</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>366</v>
+        <v>58</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="H22" s="7">
         <v>1166</v>
@@ -5433,13 +5451,13 @@
         <v>1224171</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="M22" s="7">
         <v>2087</v>
@@ -5448,13 +5466,13 @@
         <v>2210518</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5469,13 +5487,13 @@
         <v>2408002</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>376</v>
+        <v>68</v>
       </c>
       <c r="H23" s="7">
         <v>2172</v>
@@ -5484,13 +5502,13 @@
         <v>2320371</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M23" s="7">
         <v>4482</v>
@@ -5499,13 +5517,13 @@
         <v>4728374</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5561,7 +5579,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -5583,7 +5601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC2376A-6C6E-40B4-AFFD-5D43B32BB622}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14EE83DE-0D8B-44A1-BD55-90B678635221}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5600,7 +5618,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5710,10 +5728,10 @@
         <v>70</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H4" s="7">
         <v>63</v>
@@ -5722,13 +5740,13 @@
         <v>111764</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M4" s="7">
         <v>107</v>
@@ -5737,13 +5755,13 @@
         <v>213076</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5761,10 +5779,10 @@
         <v>79</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H5" s="7">
         <v>143</v>
@@ -5773,13 +5791,13 @@
         <v>240492</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M5" s="7">
         <v>269</v>
@@ -5788,13 +5806,13 @@
         <v>511467</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5862,13 +5880,13 @@
         <v>130469</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H7" s="7">
         <v>144</v>
@@ -5877,13 +5895,13 @@
         <v>162456</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="M7" s="7">
         <v>226</v>
@@ -5892,13 +5910,13 @@
         <v>292925</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5913,13 +5931,13 @@
         <v>295985</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H8" s="7">
         <v>311</v>
@@ -5928,13 +5946,13 @@
         <v>333433</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M8" s="7">
         <v>530</v>
@@ -5943,13 +5961,13 @@
         <v>629418</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6017,13 +6035,13 @@
         <v>153667</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>125</v>
+        <v>419</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="H10" s="7">
         <v>316</v>
@@ -6032,13 +6050,13 @@
         <v>225415</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="M10" s="7">
         <v>457</v>
@@ -6047,13 +6065,13 @@
         <v>379082</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6068,13 +6086,13 @@
         <v>401071</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>134</v>
+        <v>428</v>
       </c>
       <c r="H11" s="7">
         <v>525</v>
@@ -6083,13 +6101,13 @@
         <v>354782</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="M11" s="7">
         <v>927</v>
@@ -6098,13 +6116,13 @@
         <v>755854</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6172,13 +6190,13 @@
         <v>197829</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="H13" s="7">
         <v>396</v>
@@ -6187,13 +6205,13 @@
         <v>270538</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="M13" s="7">
         <v>581</v>
@@ -6202,13 +6220,13 @@
         <v>468367</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>438</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6223,13 +6241,13 @@
         <v>523866</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="H14" s="7">
         <v>735</v>
@@ -6238,13 +6256,13 @@
         <v>470306</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="M14" s="7">
         <v>1213</v>
@@ -6253,13 +6271,13 @@
         <v>994173</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>446</v>
+        <v>101</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6327,13 +6345,13 @@
         <v>153538</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="H16" s="7">
         <v>333</v>
@@ -6342,13 +6360,13 @@
         <v>200351</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="M16" s="7">
         <v>502</v>
@@ -6357,13 +6375,13 @@
         <v>353888</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6378,13 +6396,13 @@
         <v>443631</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="H17" s="7">
         <v>656</v>
@@ -6393,13 +6411,13 @@
         <v>386277</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="M17" s="7">
         <v>1147</v>
@@ -6408,13 +6426,13 @@
         <v>829909</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6482,13 +6500,13 @@
         <v>145065</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="H19" s="7">
         <v>325</v>
@@ -6497,13 +6515,13 @@
         <v>177783</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="M19" s="7">
         <v>537</v>
@@ -6512,13 +6530,13 @@
         <v>322848</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6533,13 +6551,13 @@
         <v>543201</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="H20" s="7">
         <v>1366</v>
@@ -6548,13 +6566,13 @@
         <v>838390</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="M20" s="7">
         <v>2169</v>
@@ -6563,13 +6581,13 @@
         <v>1381590</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6637,13 +6655,13 @@
         <v>881879</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H22" s="7">
         <v>1577</v>
@@ -6652,13 +6670,13 @@
         <v>1148307</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>34</v>
+        <v>488</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>59</v>
+        <v>490</v>
       </c>
       <c r="M22" s="7">
         <v>2410</v>
@@ -6667,10 +6685,10 @@
         <v>2030186</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>57</v>
@@ -6688,13 +6706,13 @@
         <v>2478730</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H23" s="7">
         <v>3736</v>
@@ -6703,13 +6721,13 @@
         <v>2623681</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>42</v>
+        <v>494</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>67</v>
+        <v>495</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="M23" s="7">
         <v>6255</v>
@@ -6718,13 +6736,13 @@
         <v>5102411</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>66</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6780,7 +6798,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D99F04A4-10DC-44BF-AAC4-7A2764ED215C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4DA8150-33A6-4057-8588-55BD4199AE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F0B8142E-8C4C-4B19-9A42-C83E74CBABA4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{562285ED-306D-4B2F-BED4-CDFE90F10CDD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="500">
   <si>
     <t>Población según si en los últimos 6 meses han ido al dentista en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -71,25 +71,25 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>24,89%</t>
   </si>
   <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
   </si>
   <si>
     <t>40,27%</t>
   </si>
   <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
   </si>
   <si>
     <t>32,37%</t>
@@ -98,7 +98,7 @@
     <t>29,54%</t>
   </si>
   <si>
-    <t>35,3%</t>
+    <t>35,28%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,25 +107,25 @@
     <t>75,11%</t>
   </si>
   <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
   </si>
   <si>
     <t>59,73%</t>
   </si>
   <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
   </si>
   <si>
     <t>67,63%</t>
   </si>
   <si>
-    <t>64,7%</t>
+    <t>64,72%</t>
   </si>
   <si>
     <t>70,46%</t>
@@ -140,1399 +140,1405 @@
     <t>27,12%</t>
   </si>
   <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
   </si>
   <si>
     <t>33,41%</t>
   </si>
   <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
   </si>
   <si>
     <t>30,01%</t>
   </si>
   <si>
-    <t>27,69%</t>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 6 meses han ido al dentista en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 6 meses han ido al dentista en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
   </si>
   <si>
     <t>32,48%</t>
   </si>
   <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
   </si>
   <si>
     <t>67,52%</t>
   </si>
   <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 6 meses han ido al dentista en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
   </si>
   <si>
     <t>32,55%</t>
   </si>
   <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
   </si>
   <si>
     <t>67,45%</t>
   </si>
   <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 6 meses han ido al dentista en 2023 (Tasa respuesta: 99,11%)</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
   </si>
   <si>
     <t>22,59%</t>
   </si>
   <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
   </si>
   <si>
     <t>77,41%</t>
   </si>
   <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 6 meses han ido al dentista en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 6 meses han ido al dentista en 2023 (Tasa respuesta: 99,11%)</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
     <t>65,85%</t>
   </si>
   <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
   </si>
   <si>
     <t>70,11%</t>
   </si>
   <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
   </si>
   <si>
     <t>17,5%</t>
   </si>
   <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
   </si>
   <si>
     <t>18,94%</t>
   </si>
   <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
   </si>
   <si>
     <t>82,5%</t>
   </si>
   <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
   </si>
   <si>
     <t>81,06%</t>
   </si>
   <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
   </si>
   <si>
     <t>26,24%</t>
   </si>
   <si>
-    <t>27,91%</t>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
   </si>
   <si>
     <t>30,44%</t>
   </si>
   <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
   </si>
   <si>
     <t>73,76%</t>
   </si>
   <si>
-    <t>72,09%</t>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
   </si>
   <si>
     <t>69,56%</t>
   </si>
   <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
   </si>
 </sst>
 </file>
@@ -1944,7 +1950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73A28DC-2ABF-4DB9-B5D5-59152FB8414B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978699E7-6A38-4C2D-B8EA-0C6445154822}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2551,10 +2557,10 @@
         <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>318</v>
@@ -2563,13 +2569,13 @@
         <v>333561</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2584,13 +2590,13 @@
         <v>377248</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>315</v>
@@ -2599,13 +2605,13 @@
         <v>323068</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="M14" s="7">
         <v>667</v>
@@ -2614,13 +2620,13 @@
         <v>700316</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2676,7 +2682,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2688,13 +2694,13 @@
         <v>94469</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>118</v>
@@ -2703,13 +2709,13 @@
         <v>120405</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>213</v>
@@ -2721,10 +2727,10 @@
         <v>70</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2739,13 +2745,13 @@
         <v>292241</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>277</v>
@@ -2754,13 +2760,13 @@
         <v>282656</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>574</v>
@@ -2769,13 +2775,13 @@
         <v>574896</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2831,7 +2837,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2843,13 +2849,13 @@
         <v>90525</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>120</v>
@@ -2858,13 +2864,13 @@
         <v>120871</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>215</v>
@@ -2873,13 +2879,13 @@
         <v>211395</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,13 +2900,13 @@
         <v>411941</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>541</v>
@@ -2909,13 +2915,13 @@
         <v>555971</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>969</v>
@@ -2924,13 +2930,13 @@
         <v>967913</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2998,13 +3004,13 @@
         <v>814918</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>1036</v>
@@ -3013,13 +3019,13 @@
         <v>1058996</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>1839</v>
@@ -3028,13 +3034,13 @@
         <v>1873914</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3046,16 +3052,16 @@
         <v>2410</v>
       </c>
       <c r="D23" s="7">
-        <v>2460714</v>
+        <v>2460713</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>2260</v>
@@ -3064,13 +3070,13 @@
         <v>2319276</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>4670</v>
@@ -3079,13 +3085,13 @@
         <v>4779990</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,7 +3103,7 @@
         <v>3213</v>
       </c>
       <c r="D24" s="7">
-        <v>3275632</v>
+        <v>3275631</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3141,7 +3147,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3163,7 +3169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684544E8-79E5-4EAD-9C13-EE06B76875D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0769850-A032-4041-9D99-5A9E26740405}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3180,7 +3186,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3287,13 +3293,13 @@
         <v>137606</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H4" s="7">
         <v>158</v>
@@ -3302,13 +3308,13 @@
         <v>162923</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M4" s="7">
         <v>293</v>
@@ -3317,13 +3323,13 @@
         <v>300530</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3338,13 +3344,13 @@
         <v>316540</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>101</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H5" s="7">
         <v>263</v>
@@ -3353,13 +3359,13 @@
         <v>267307</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M5" s="7">
         <v>574</v>
@@ -3368,13 +3374,13 @@
         <v>583846</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,13 +3448,13 @@
         <v>203047</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H7" s="7">
         <v>191</v>
@@ -3457,13 +3463,13 @@
         <v>204336</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>92</v>
+        <v>162</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M7" s="7">
         <v>386</v>
@@ -3472,13 +3478,13 @@
         <v>407383</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3493,13 +3499,13 @@
         <v>482890</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H8" s="7">
         <v>380</v>
@@ -3508,13 +3514,13 @@
         <v>405919</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="M8" s="7">
         <v>851</v>
@@ -3523,13 +3529,13 @@
         <v>888810</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,13 +3603,13 @@
         <v>176131</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="H10" s="7">
         <v>229</v>
@@ -3612,13 +3618,13 @@
         <v>243281</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M10" s="7">
         <v>398</v>
@@ -3627,13 +3633,13 @@
         <v>419412</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3648,13 +3654,13 @@
         <v>505732</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>187</v>
+        <v>85</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H11" s="7">
         <v>438</v>
@@ -3663,13 +3669,13 @@
         <v>467569</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="M11" s="7">
         <v>920</v>
@@ -3678,13 +3684,13 @@
         <v>973300</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,13 +3758,13 @@
         <v>160627</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H13" s="7">
         <v>172</v>
@@ -3767,13 +3773,13 @@
         <v>199968</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M13" s="7">
         <v>316</v>
@@ -3782,13 +3788,13 @@
         <v>360595</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3803,13 +3809,13 @@
         <v>453990</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H14" s="7">
         <v>366</v>
@@ -3818,28 +3824,28 @@
         <v>415267</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="M14" s="7">
         <v>770</v>
       </c>
       <c r="N14" s="7">
-        <v>869257</v>
+        <v>869256</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3881,7 +3887,7 @@
         <v>1086</v>
       </c>
       <c r="N15" s="7">
-        <v>1229852</v>
+        <v>1229851</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3895,7 +3901,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3907,13 +3913,13 @@
         <v>89348</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H16" s="7">
         <v>114</v>
@@ -3922,13 +3928,13 @@
         <v>123968</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>40</v>
+        <v>212</v>
       </c>
       <c r="M16" s="7">
         <v>197</v>
@@ -3937,13 +3943,13 @@
         <v>213316</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3958,13 +3964,13 @@
         <v>338718</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H17" s="7">
         <v>292</v>
@@ -3973,13 +3979,13 @@
         <v>323832</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>48</v>
+        <v>219</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M17" s="7">
         <v>601</v>
@@ -3988,13 +3994,13 @@
         <v>662550</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,7 +4056,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4062,13 +4068,13 @@
         <v>77837</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H19" s="7">
         <v>132</v>
@@ -4077,13 +4083,13 @@
         <v>144380</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M19" s="7">
         <v>203</v>
@@ -4092,13 +4098,13 @@
         <v>222217</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4113,13 +4119,13 @@
         <v>481800</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H20" s="7">
         <v>562</v>
@@ -4128,13 +4134,13 @@
         <v>598595</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M20" s="7">
         <v>995</v>
@@ -4143,13 +4149,13 @@
         <v>1080395</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,13 +4223,13 @@
         <v>844597</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H22" s="7">
         <v>996</v>
@@ -4232,13 +4238,13 @@
         <v>1078857</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M22" s="7">
         <v>1793</v>
@@ -4247,13 +4253,13 @@
         <v>1923453</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4268,13 +4274,13 @@
         <v>2579669</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="H23" s="7">
         <v>2301</v>
@@ -4283,13 +4289,13 @@
         <v>2478488</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M23" s="7">
         <v>4711</v>
@@ -4298,13 +4304,13 @@
         <v>5058157</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,7 +4366,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4382,7 +4388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A4E885-FD0F-450D-88CD-88D2B563F227}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66EDD9B-AA70-4293-AD69-E7E4D09EBE78}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4399,7 +4405,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4506,13 +4512,13 @@
         <v>162618</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H4" s="7">
         <v>179</v>
@@ -4521,13 +4527,13 @@
         <v>174433</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M4" s="7">
         <v>330</v>
@@ -4536,13 +4542,13 @@
         <v>337051</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4557,13 +4563,13 @@
         <v>256845</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H5" s="7">
         <v>225</v>
@@ -4572,13 +4578,13 @@
         <v>221322</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="M5" s="7">
         <v>467</v>
@@ -4587,13 +4593,13 @@
         <v>478167</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,13 +4667,13 @@
         <v>205632</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H7" s="7">
         <v>244</v>
@@ -4676,13 +4682,13 @@
         <v>238488</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M7" s="7">
         <v>441</v>
@@ -4691,13 +4697,13 @@
         <v>444120</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,13 +4718,13 @@
         <v>384864</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H8" s="7">
         <v>335</v>
@@ -4727,13 +4733,13 @@
         <v>325056</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M8" s="7">
         <v>705</v>
@@ -4742,13 +4748,13 @@
         <v>709920</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,13 +4822,13 @@
         <v>190431</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="H10" s="7">
         <v>239</v>
@@ -4831,13 +4837,13 @@
         <v>238665</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="M10" s="7">
         <v>418</v>
@@ -4846,13 +4852,13 @@
         <v>429096</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>306</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4867,13 +4873,13 @@
         <v>478666</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H11" s="7">
         <v>426</v>
@@ -4882,13 +4888,13 @@
         <v>422721</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M11" s="7">
         <v>885</v>
@@ -4897,13 +4903,13 @@
         <v>901387</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>316</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4971,13 +4977,13 @@
         <v>195393</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H13" s="7">
         <v>215</v>
@@ -4986,13 +4992,13 @@
         <v>234660</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="M13" s="7">
         <v>389</v>
@@ -5001,13 +5007,13 @@
         <v>430053</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5022,13 +5028,13 @@
         <v>450655</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="H14" s="7">
         <v>387</v>
@@ -5037,13 +5043,13 @@
         <v>414417</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M14" s="7">
         <v>795</v>
@@ -5052,13 +5058,13 @@
         <v>865072</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5114,7 +5120,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5126,13 +5132,13 @@
         <v>130808</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="H16" s="7">
         <v>133</v>
@@ -5141,13 +5147,13 @@
         <v>155126</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M16" s="7">
         <v>248</v>
@@ -5156,13 +5162,13 @@
         <v>285934</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>246</v>
+        <v>338</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5177,13 +5183,13 @@
         <v>347110</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H17" s="7">
         <v>300</v>
@@ -5192,13 +5198,13 @@
         <v>341723</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="M17" s="7">
         <v>609</v>
@@ -5207,13 +5213,13 @@
         <v>688833</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5269,7 +5275,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5281,13 +5287,13 @@
         <v>101466</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="H19" s="7">
         <v>156</v>
@@ -5296,13 +5302,13 @@
         <v>182799</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="M19" s="7">
         <v>261</v>
@@ -5311,13 +5317,13 @@
         <v>284265</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5332,13 +5338,13 @@
         <v>489862</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="H20" s="7">
         <v>499</v>
@@ -5347,13 +5353,13 @@
         <v>595132</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="M20" s="7">
         <v>1021</v>
@@ -5362,13 +5368,13 @@
         <v>1084994</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5436,13 +5442,13 @@
         <v>986348</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="H22" s="7">
         <v>1166</v>
@@ -5451,13 +5457,13 @@
         <v>1224171</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="M22" s="7">
         <v>2087</v>
@@ -5466,13 +5472,13 @@
         <v>2210518</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5487,13 +5493,13 @@
         <v>2408002</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H23" s="7">
         <v>2172</v>
@@ -5502,13 +5508,13 @@
         <v>2320371</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="M23" s="7">
         <v>4482</v>
@@ -5517,13 +5523,13 @@
         <v>4728374</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5579,7 +5585,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5601,7 +5607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14EE83DE-0D8B-44A1-BD55-90B678635221}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E1E480B-488C-436D-9B07-1C1734117902}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5618,7 +5624,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5728,10 +5734,10 @@
         <v>70</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H4" s="7">
         <v>63</v>
@@ -5740,13 +5746,13 @@
         <v>111764</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="M4" s="7">
         <v>107</v>
@@ -5755,13 +5761,13 @@
         <v>213076</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>392</v>
+        <v>242</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>281</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5776,13 +5782,13 @@
         <v>270975</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H5" s="7">
         <v>143</v>
@@ -5791,13 +5797,13 @@
         <v>240492</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="M5" s="7">
         <v>269</v>
@@ -5806,13 +5812,13 @@
         <v>511467</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>290</v>
+        <v>397</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>399</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5880,13 +5886,13 @@
         <v>130469</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="H7" s="7">
         <v>144</v>
@@ -5895,13 +5901,13 @@
         <v>162456</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="M7" s="7">
         <v>226</v>
@@ -5910,13 +5916,13 @@
         <v>292925</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5931,28 +5937,28 @@
         <v>295985</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="H8" s="7">
         <v>311</v>
       </c>
       <c r="I8" s="7">
-        <v>333433</v>
+        <v>333434</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="M8" s="7">
         <v>530</v>
@@ -5961,13 +5967,13 @@
         <v>629418</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5994,7 +6000,7 @@
         <v>455</v>
       </c>
       <c r="I9" s="7">
-        <v>495889</v>
+        <v>495890</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6035,13 +6041,13 @@
         <v>153667</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="H10" s="7">
         <v>316</v>
@@ -6050,13 +6056,13 @@
         <v>225415</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="M10" s="7">
         <v>457</v>
@@ -6065,13 +6071,13 @@
         <v>379082</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6086,13 +6092,13 @@
         <v>401071</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="H11" s="7">
         <v>525</v>
@@ -6101,13 +6107,13 @@
         <v>354782</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>431</v>
       </c>
       <c r="M11" s="7">
         <v>927</v>
@@ -6116,10 +6122,10 @@
         <v>755854</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>433</v>
@@ -6226,7 +6232,7 @@
         <v>441</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>94</v>
+        <v>442</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6241,13 +6247,13 @@
         <v>523866</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H14" s="7">
         <v>735</v>
@@ -6256,13 +6262,13 @@
         <v>470306</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M14" s="7">
         <v>1213</v>
@@ -6271,13 +6277,13 @@
         <v>994173</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>101</v>
+        <v>450</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6333,7 +6339,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6345,13 +6351,13 @@
         <v>153538</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H16" s="7">
         <v>333</v>
@@ -6360,13 +6366,13 @@
         <v>200351</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="M16" s="7">
         <v>502</v>
@@ -6375,13 +6381,13 @@
         <v>353888</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>457</v>
+        <v>181</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6396,13 +6402,13 @@
         <v>443631</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H17" s="7">
         <v>656</v>
@@ -6411,13 +6417,13 @@
         <v>386277</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M17" s="7">
         <v>1147</v>
@@ -6426,13 +6432,13 @@
         <v>829909</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>467</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6488,7 +6494,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6500,13 +6506,13 @@
         <v>145065</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>470</v>
       </c>
       <c r="H19" s="7">
         <v>325</v>
@@ -6515,13 +6521,13 @@
         <v>177783</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>473</v>
       </c>
       <c r="M19" s="7">
         <v>537</v>
@@ -6530,13 +6536,13 @@
         <v>322848</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6551,13 +6557,13 @@
         <v>543201</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>479</v>
       </c>
       <c r="H20" s="7">
         <v>1366</v>
@@ -6566,13 +6572,13 @@
         <v>838390</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>482</v>
       </c>
       <c r="M20" s="7">
         <v>2169</v>
@@ -6581,13 +6587,13 @@
         <v>1381590</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6655,13 +6661,13 @@
         <v>881879</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>487</v>
       </c>
       <c r="H22" s="7">
         <v>1577</v>
@@ -6670,28 +6676,28 @@
         <v>1148307</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>490</v>
       </c>
       <c r="M22" s="7">
         <v>2410</v>
       </c>
       <c r="N22" s="7">
-        <v>2030186</v>
+        <v>2030185</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6712,7 +6718,7 @@
         <v>493</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>223</v>
+        <v>494</v>
       </c>
       <c r="H23" s="7">
         <v>3736</v>
@@ -6721,13 +6727,13 @@
         <v>2623681</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M23" s="7">
         <v>6255</v>
@@ -6736,13 +6742,13 @@
         <v>5102411</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>66</v>
+        <v>498</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6784,7 +6790,7 @@
         <v>8665</v>
       </c>
       <c r="N24" s="7">
-        <v>7132597</v>
+        <v>7132596</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -6798,7 +6804,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4DA8150-33A6-4057-8588-55BD4199AE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD03AED0-F897-4CBE-B14B-8999F915E284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{562285ED-306D-4B2F-BED4-CDFE90F10CDD}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{EB88BEE5-124A-45A0-955F-FE0257376D33}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="569">
   <si>
     <t>Población según si en los últimos 6 meses han ido al dentista en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>27,12%</t>
@@ -191,7 +191,7 @@
     <t>72,43%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>26,07%</t>
@@ -248,7 +248,7 @@
     <t>72,9%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>27,21%</t>
@@ -299,7 +299,7 @@
     <t>70,74%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>24,43%</t>
@@ -350,61 +350,118 @@
     <t>75,88%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
   </si>
   <si>
     <t>24,88%</t>
@@ -683,9 +740,6 @@
     <t>24,35%</t>
   </si>
   <si>
-    <t>21,53%</t>
-  </si>
-  <si>
     <t>27,53%</t>
   </si>
   <si>
@@ -710,61 +764,112 @@
     <t>72,47%</t>
   </si>
   <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
   </si>
   <si>
     <t>24,67%</t>
@@ -1088,58 +1193,106 @@
     <t>73,73%</t>
   </si>
   <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
   </si>
   <si>
     <t>29,06%</t>
@@ -1193,352 +1346,406 @@
     <t>Población según si en los últimos 6 meses han ido al dentista en 2023 (Tasa respuesta: 99,11%)</t>
   </si>
   <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
   </si>
   <si>
     <t>27,7%</t>
   </si>
   <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
   </si>
   <si>
     <t>72,3%</t>
   </si>
   <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
   </si>
 </sst>
 </file>
@@ -1950,8 +2157,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978699E7-6A38-4C2D-B8EA-0C6445154822}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0E1782-9FF4-433B-9178-D0C2927B2344}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2843,10 +3050,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="D19" s="7">
-        <v>90525</v>
+        <v>62346</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>104</v>
@@ -2858,10 +3065,10 @@
         <v>106</v>
       </c>
       <c r="H19" s="7">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="I19" s="7">
-        <v>120871</v>
+        <v>74460</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>107</v>
@@ -2873,10 +3080,10 @@
         <v>109</v>
       </c>
       <c r="M19" s="7">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="N19" s="7">
-        <v>211395</v>
+        <v>136806</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>110</v>
@@ -2894,10 +3101,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>428</v>
+        <v>238</v>
       </c>
       <c r="D20" s="7">
-        <v>411941</v>
+        <v>230237</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>113</v>
@@ -2909,10 +3116,10 @@
         <v>115</v>
       </c>
       <c r="H20" s="7">
-        <v>541</v>
+        <v>291</v>
       </c>
       <c r="I20" s="7">
-        <v>555971</v>
+        <v>268474</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>116</v>
@@ -2924,10 +3131,10 @@
         <v>118</v>
       </c>
       <c r="M20" s="7">
-        <v>969</v>
+        <v>529</v>
       </c>
       <c r="N20" s="7">
-        <v>967913</v>
+        <v>498711</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>119</v>
@@ -2945,10 +3152,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2960,10 +3167,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2975,10 +3182,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2992,55 +3199,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>803</v>
+        <v>30</v>
       </c>
       <c r="D22" s="7">
-        <v>814918</v>
+        <v>28179</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
-        <v>1036</v>
+        <v>40</v>
       </c>
       <c r="I22" s="7">
-        <v>1058996</v>
+        <v>46410</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
-        <v>1839</v>
+        <v>70</v>
       </c>
       <c r="N22" s="7">
-        <v>1873914</v>
+        <v>74589</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,49 +3256,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2410</v>
+        <v>190</v>
       </c>
       <c r="D23" s="7">
-        <v>2460713</v>
+        <v>181704</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
-        <v>2260</v>
+        <v>250</v>
       </c>
       <c r="I23" s="7">
-        <v>2319276</v>
+        <v>287498</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
-        <v>4670</v>
+        <v>440</v>
       </c>
       <c r="N23" s="7">
-        <v>4779990</v>
+        <v>469202</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,63 +3307,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>803</v>
+      </c>
+      <c r="D25" s="7">
+        <v>814918</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1036</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1058996</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1839</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1873914</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2410</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2460713</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2260</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2319276</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4670</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4779990</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3213</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3275631</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3296</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3378272</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6509</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6653904</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3169,8 +3532,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0769850-A032-4041-9D99-5A9E26740405}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{582F92B9-5163-49BC-AA55-D137A3AA3120}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3186,7 +3549,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3296,10 +3659,10 @@
         <v>94</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="H4" s="7">
         <v>158</v>
@@ -3308,13 +3671,13 @@
         <v>162923</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="M4" s="7">
         <v>293</v>
@@ -3323,13 +3686,13 @@
         <v>300530</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3347,10 +3710,10 @@
         <v>101</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="H5" s="7">
         <v>263</v>
@@ -3359,13 +3722,13 @@
         <v>267307</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="M5" s="7">
         <v>574</v>
@@ -3374,13 +3737,13 @@
         <v>583846</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,13 +3811,13 @@
         <v>203047</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="H7" s="7">
         <v>191</v>
@@ -3463,13 +3826,13 @@
         <v>204336</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="M7" s="7">
         <v>386</v>
@@ -3478,13 +3841,13 @@
         <v>407383</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,13 +3862,13 @@
         <v>482890</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="H8" s="7">
         <v>380</v>
@@ -3514,13 +3877,13 @@
         <v>405919</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="M8" s="7">
         <v>851</v>
@@ -3529,13 +3892,13 @@
         <v>888810</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,10 +3966,10 @@
         <v>176131</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>76</v>
@@ -3618,13 +3981,13 @@
         <v>243281</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="M10" s="7">
         <v>398</v>
@@ -3633,13 +3996,13 @@
         <v>419412</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3654,13 +4017,13 @@
         <v>505732</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>85</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="H11" s="7">
         <v>438</v>
@@ -3669,10 +4032,10 @@
         <v>467569</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>42</v>
@@ -3684,13 +4047,13 @@
         <v>973300</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,13 +4121,13 @@
         <v>160627</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="H13" s="7">
         <v>172</v>
@@ -3773,13 +4136,13 @@
         <v>199968</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="M13" s="7">
         <v>316</v>
@@ -3788,13 +4151,13 @@
         <v>360595</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3809,13 +4172,13 @@
         <v>453990</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="H14" s="7">
         <v>366</v>
@@ -3824,13 +4187,13 @@
         <v>415267</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="M14" s="7">
         <v>770</v>
@@ -3839,13 +4202,13 @@
         <v>869256</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3913,13 +4276,13 @@
         <v>89348</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="H16" s="7">
         <v>114</v>
@@ -3928,13 +4291,13 @@
         <v>123968</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="M16" s="7">
         <v>197</v>
@@ -3943,13 +4306,13 @@
         <v>213316</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>214</v>
+        <v>110</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3964,13 +4327,13 @@
         <v>338718</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="H17" s="7">
         <v>292</v>
@@ -3979,13 +4342,13 @@
         <v>323832</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="M17" s="7">
         <v>601</v>
@@ -3994,13 +4357,13 @@
         <v>662550</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>223</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,49 +4425,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D19" s="7">
-        <v>77837</v>
+        <v>55400</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="H19" s="7">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="I19" s="7">
-        <v>144380</v>
+        <v>93841</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="M19" s="7">
-        <v>203</v>
+        <v>136</v>
       </c>
       <c r="N19" s="7">
-        <v>222217</v>
+        <v>149242</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4113,49 +4476,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>433</v>
+        <v>232</v>
       </c>
       <c r="D20" s="7">
-        <v>481800</v>
+        <v>254386</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="H20" s="7">
-        <v>562</v>
+        <v>258</v>
       </c>
       <c r="I20" s="7">
-        <v>598595</v>
+        <v>260155</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="M20" s="7">
-        <v>995</v>
+        <v>490</v>
       </c>
       <c r="N20" s="7">
-        <v>1080395</v>
+        <v>514540</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4164,10 +4527,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4179,10 +4542,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4194,10 +4557,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4211,55 +4574,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>797</v>
+        <v>21</v>
       </c>
       <c r="D22" s="7">
-        <v>844597</v>
+        <v>22437</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="H22" s="7">
-        <v>996</v>
+        <v>46</v>
       </c>
       <c r="I22" s="7">
-        <v>1078857</v>
+        <v>50539</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="M22" s="7">
-        <v>1793</v>
+        <v>67</v>
       </c>
       <c r="N22" s="7">
-        <v>1923453</v>
+        <v>72976</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4268,49 +4631,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2410</v>
+        <v>201</v>
       </c>
       <c r="D23" s="7">
-        <v>2579669</v>
+        <v>227414</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="H23" s="7">
-        <v>2301</v>
+        <v>304</v>
       </c>
       <c r="I23" s="7">
-        <v>2478488</v>
+        <v>338440</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="M23" s="7">
-        <v>4711</v>
+        <v>505</v>
       </c>
       <c r="N23" s="7">
-        <v>5058157</v>
+        <v>565854</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4319,63 +4682,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>572</v>
+      </c>
+      <c r="N24" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>797</v>
+      </c>
+      <c r="D25" s="7">
+        <v>844597</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H25" s="7">
+        <v>996</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1078857</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1793</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1923453</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2410</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2579669</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2301</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2478488</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4711</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5058157</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3207</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3424266</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3557345</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6504</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6981610</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4388,8 +4907,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66EDD9B-AA70-4293-AD69-E7E4D09EBE78}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19762F3E-6E9C-4AEB-AA89-6F22BA13799B}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4405,7 +4924,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4512,13 +5031,13 @@
         <v>162618</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="H4" s="7">
         <v>179</v>
@@ -4527,13 +5046,13 @@
         <v>174433</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="M4" s="7">
         <v>330</v>
@@ -4542,13 +5061,13 @@
         <v>337051</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,13 +5082,13 @@
         <v>256845</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="H5" s="7">
         <v>225</v>
@@ -4578,13 +5097,13 @@
         <v>221322</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="M5" s="7">
         <v>467</v>
@@ -4593,13 +5112,13 @@
         <v>478167</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,13 +5186,13 @@
         <v>205632</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="H7" s="7">
         <v>244</v>
@@ -4682,13 +5201,13 @@
         <v>238488</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="M7" s="7">
         <v>441</v>
@@ -4697,13 +5216,13 @@
         <v>444120</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4718,13 +5237,13 @@
         <v>384864</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="H8" s="7">
         <v>335</v>
@@ -4733,13 +5252,13 @@
         <v>325056</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="M8" s="7">
         <v>705</v>
@@ -4748,13 +5267,13 @@
         <v>709920</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4822,13 +5341,13 @@
         <v>190431</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="H10" s="7">
         <v>239</v>
@@ -4837,13 +5356,13 @@
         <v>238665</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="M10" s="7">
         <v>418</v>
@@ -4852,13 +5371,13 @@
         <v>429096</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,13 +5392,13 @@
         <v>478666</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="H11" s="7">
         <v>426</v>
@@ -4888,13 +5407,13 @@
         <v>422721</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="M11" s="7">
         <v>885</v>
@@ -4903,10 +5422,10 @@
         <v>901387</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>61</v>
@@ -4977,13 +5496,13 @@
         <v>195393</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="H13" s="7">
         <v>215</v>
@@ -4992,13 +5511,13 @@
         <v>234660</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="M13" s="7">
         <v>389</v>
@@ -5007,13 +5526,13 @@
         <v>430053</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,13 +5547,13 @@
         <v>450655</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="H14" s="7">
         <v>387</v>
@@ -5043,13 +5562,13 @@
         <v>414417</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="M14" s="7">
         <v>795</v>
@@ -5058,13 +5577,13 @@
         <v>865072</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5132,13 +5651,13 @@
         <v>130808</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="H16" s="7">
         <v>133</v>
@@ -5147,13 +5666,13 @@
         <v>155126</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="M16" s="7">
         <v>248</v>
@@ -5162,13 +5681,13 @@
         <v>285934</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5183,13 +5702,13 @@
         <v>347110</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="H17" s="7">
         <v>300</v>
@@ -5198,13 +5717,13 @@
         <v>341723</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="M17" s="7">
         <v>609</v>
@@ -5213,13 +5732,13 @@
         <v>688833</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5281,49 +5800,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
+        <v>63</v>
+      </c>
+      <c r="D19" s="7">
+        <v>66425</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="H19" s="7">
         <v>105</v>
       </c>
-      <c r="D19" s="7">
-        <v>101466</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="H19" s="7">
-        <v>156</v>
-      </c>
       <c r="I19" s="7">
-        <v>182799</v>
+        <v>113756</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>352</v>
+        <v>199</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>353</v>
+        <v>387</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>354</v>
+        <v>388</v>
       </c>
       <c r="M19" s="7">
-        <v>261</v>
+        <v>168</v>
       </c>
       <c r="N19" s="7">
-        <v>284265</v>
+        <v>180182</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>355</v>
+        <v>389</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>356</v>
+        <v>390</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>357</v>
+        <v>391</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5332,49 +5851,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>522</v>
+        <v>262</v>
       </c>
       <c r="D20" s="7">
-        <v>489862</v>
+        <v>267905</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>358</v>
+        <v>392</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>359</v>
+        <v>393</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>360</v>
+        <v>394</v>
       </c>
       <c r="H20" s="7">
-        <v>499</v>
+        <v>249</v>
       </c>
       <c r="I20" s="7">
-        <v>595132</v>
+        <v>264006</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>361</v>
+        <v>206</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>362</v>
+        <v>395</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>363</v>
+        <v>396</v>
       </c>
       <c r="M20" s="7">
-        <v>1021</v>
+        <v>511</v>
       </c>
       <c r="N20" s="7">
-        <v>1084994</v>
+        <v>531910</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>365</v>
+        <v>398</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>366</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5383,10 +5902,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5398,10 +5917,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5413,10 +5932,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5430,55 +5949,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>921</v>
+        <v>42</v>
       </c>
       <c r="D22" s="7">
-        <v>986348</v>
+        <v>35041</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>367</v>
+        <v>400</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>368</v>
+        <v>401</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>369</v>
+        <v>402</v>
       </c>
       <c r="H22" s="7">
-        <v>1166</v>
+        <v>51</v>
       </c>
       <c r="I22" s="7">
-        <v>1224171</v>
+        <v>69042</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>315</v>
+        <v>403</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>370</v>
+        <v>404</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>371</v>
+        <v>405</v>
       </c>
       <c r="M22" s="7">
-        <v>2087</v>
+        <v>93</v>
       </c>
       <c r="N22" s="7">
-        <v>2210518</v>
+        <v>104083</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>372</v>
+        <v>406</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>373</v>
+        <v>407</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5487,49 +6006,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2310</v>
+        <v>260</v>
       </c>
       <c r="D23" s="7">
-        <v>2408002</v>
+        <v>221957</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="H23" s="7">
-        <v>2172</v>
+        <v>250</v>
       </c>
       <c r="I23" s="7">
-        <v>2320371</v>
+        <v>331127</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>323</v>
+        <v>412</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>379</v>
+        <v>414</v>
       </c>
       <c r="M23" s="7">
-        <v>4482</v>
+        <v>510</v>
       </c>
       <c r="N23" s="7">
-        <v>4728374</v>
+        <v>553084</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>380</v>
+        <v>415</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>381</v>
+        <v>416</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>382</v>
+        <v>417</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,63 +6057,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>921</v>
+      </c>
+      <c r="D25" s="7">
+        <v>986348</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1166</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1224171</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2087</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2210518</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2310</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2408002</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2172</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2320371</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4482</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4728374</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5607,8 +6282,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E1E480B-488C-436D-9B07-1C1734117902}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6827E12E-4CC8-49CE-A70B-8EB7E525F091}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5624,7 +6299,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>383</v>
+        <v>434</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5728,46 +6403,46 @@
         <v>44</v>
       </c>
       <c r="D4" s="7">
-        <v>101312</v>
+        <v>111031</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>70</v>
+        <v>435</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>384</v>
+        <v>436</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>385</v>
+        <v>437</v>
       </c>
       <c r="H4" s="7">
         <v>63</v>
       </c>
       <c r="I4" s="7">
-        <v>111764</v>
+        <v>100805</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>386</v>
+        <v>438</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>387</v>
+        <v>439</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>388</v>
+        <v>440</v>
       </c>
       <c r="M4" s="7">
         <v>107</v>
       </c>
       <c r="N4" s="7">
-        <v>213076</v>
+        <v>211836</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>389</v>
+        <v>441</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>242</v>
+        <v>442</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>390</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5779,46 +6454,46 @@
         <v>126</v>
       </c>
       <c r="D5" s="7">
-        <v>270975</v>
+        <v>283451</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>78</v>
+        <v>444</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>391</v>
+        <v>445</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>392</v>
+        <v>446</v>
       </c>
       <c r="H5" s="7">
         <v>143</v>
       </c>
       <c r="I5" s="7">
-        <v>240492</v>
+        <v>210167</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>393</v>
+        <v>447</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>394</v>
+        <v>448</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>395</v>
+        <v>449</v>
       </c>
       <c r="M5" s="7">
         <v>269</v>
       </c>
       <c r="N5" s="7">
-        <v>511467</v>
+        <v>493618</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>396</v>
+        <v>450</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>397</v>
+        <v>451</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>251</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,7 +6505,7 @@
         <v>170</v>
       </c>
       <c r="D6" s="7">
-        <v>372287</v>
+        <v>394482</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5845,7 +6520,7 @@
         <v>206</v>
       </c>
       <c r="I6" s="7">
-        <v>352256</v>
+        <v>310972</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5860,7 +6535,7 @@
         <v>376</v>
       </c>
       <c r="N6" s="7">
-        <v>724543</v>
+        <v>705454</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5883,46 +6558,46 @@
         <v>82</v>
       </c>
       <c r="D7" s="7">
-        <v>130469</v>
+        <v>130255</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>398</v>
+        <v>453</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>399</v>
+        <v>454</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>400</v>
+        <v>455</v>
       </c>
       <c r="H7" s="7">
         <v>144</v>
       </c>
       <c r="I7" s="7">
-        <v>162456</v>
+        <v>151201</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>401</v>
+        <v>456</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>402</v>
+        <v>457</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>403</v>
+        <v>458</v>
       </c>
       <c r="M7" s="7">
         <v>226</v>
       </c>
       <c r="N7" s="7">
-        <v>292925</v>
+        <v>281456</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>404</v>
+        <v>348</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>405</v>
+        <v>459</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>406</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5934,46 +6609,46 @@
         <v>219</v>
       </c>
       <c r="D8" s="7">
-        <v>295985</v>
+        <v>291671</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>407</v>
+        <v>461</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>408</v>
+        <v>462</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>409</v>
+        <v>463</v>
       </c>
       <c r="H8" s="7">
         <v>311</v>
       </c>
       <c r="I8" s="7">
-        <v>333434</v>
+        <v>357598</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>410</v>
+        <v>464</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>411</v>
+        <v>465</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>412</v>
+        <v>466</v>
       </c>
       <c r="M8" s="7">
         <v>530</v>
       </c>
       <c r="N8" s="7">
-        <v>629418</v>
+        <v>649269</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>413</v>
+        <v>357</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>414</v>
+        <v>467</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>415</v>
+        <v>468</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5985,7 +6660,7 @@
         <v>301</v>
       </c>
       <c r="D9" s="7">
-        <v>426454</v>
+        <v>421926</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -6000,7 +6675,7 @@
         <v>455</v>
       </c>
       <c r="I9" s="7">
-        <v>495890</v>
+        <v>508799</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6015,7 +6690,7 @@
         <v>756</v>
       </c>
       <c r="N9" s="7">
-        <v>922343</v>
+        <v>930725</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6038,46 +6713,46 @@
         <v>141</v>
       </c>
       <c r="D10" s="7">
-        <v>153667</v>
+        <v>148397</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>416</v>
+        <v>469</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>417</v>
+        <v>470</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>418</v>
+        <v>471</v>
       </c>
       <c r="H10" s="7">
         <v>316</v>
       </c>
       <c r="I10" s="7">
-        <v>225415</v>
+        <v>210974</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>420</v>
+        <v>473</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>421</v>
+        <v>474</v>
       </c>
       <c r="M10" s="7">
         <v>457</v>
       </c>
       <c r="N10" s="7">
-        <v>379082</v>
+        <v>359371</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>422</v>
+        <v>180</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>423</v>
+        <v>475</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>424</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,46 +6764,46 @@
         <v>402</v>
       </c>
       <c r="D11" s="7">
-        <v>401071</v>
+        <v>385582</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>425</v>
+        <v>477</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>426</v>
+        <v>478</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>427</v>
+        <v>479</v>
       </c>
       <c r="H11" s="7">
         <v>525</v>
       </c>
       <c r="I11" s="7">
-        <v>354782</v>
+        <v>328452</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>428</v>
+        <v>480</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>429</v>
+        <v>481</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>430</v>
+        <v>482</v>
       </c>
       <c r="M11" s="7">
         <v>927</v>
       </c>
       <c r="N11" s="7">
-        <v>755854</v>
+        <v>714034</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>431</v>
+        <v>189</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>432</v>
+        <v>483</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>433</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,7 +6815,7 @@
         <v>543</v>
       </c>
       <c r="D12" s="7">
-        <v>554738</v>
+        <v>533979</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6155,7 +6830,7 @@
         <v>841</v>
       </c>
       <c r="I12" s="7">
-        <v>580197</v>
+        <v>539426</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6170,7 +6845,7 @@
         <v>1384</v>
       </c>
       <c r="N12" s="7">
-        <v>1134936</v>
+        <v>1073405</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6193,46 +6868,46 @@
         <v>185</v>
       </c>
       <c r="D13" s="7">
-        <v>197829</v>
+        <v>190037</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>434</v>
+        <v>485</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>435</v>
+        <v>486</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>436</v>
+        <v>487</v>
       </c>
       <c r="H13" s="7">
         <v>396</v>
       </c>
       <c r="I13" s="7">
-        <v>270538</v>
+        <v>274643</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>437</v>
+        <v>488</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>438</v>
+        <v>489</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>439</v>
+        <v>490</v>
       </c>
       <c r="M13" s="7">
         <v>581</v>
       </c>
       <c r="N13" s="7">
-        <v>468367</v>
+        <v>464679</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>440</v>
+        <v>491</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>441</v>
+        <v>492</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>442</v>
+        <v>493</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6244,46 +6919,46 @@
         <v>478</v>
       </c>
       <c r="D14" s="7">
-        <v>523866</v>
+        <v>695667</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>443</v>
+        <v>494</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>444</v>
+        <v>495</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>445</v>
+        <v>496</v>
       </c>
       <c r="H14" s="7">
         <v>735</v>
       </c>
       <c r="I14" s="7">
-        <v>470306</v>
+        <v>432334</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>446</v>
+        <v>497</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>447</v>
+        <v>498</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>448</v>
+        <v>499</v>
       </c>
       <c r="M14" s="7">
         <v>1213</v>
       </c>
       <c r="N14" s="7">
-        <v>994173</v>
+        <v>1128002</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>449</v>
+        <v>500</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>450</v>
+        <v>501</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,7 +6970,7 @@
         <v>663</v>
       </c>
       <c r="D15" s="7">
-        <v>721695</v>
+        <v>885704</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6310,7 +6985,7 @@
         <v>1131</v>
       </c>
       <c r="I15" s="7">
-        <v>740844</v>
+        <v>706977</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6325,7 +7000,7 @@
         <v>1794</v>
       </c>
       <c r="N15" s="7">
-        <v>1462540</v>
+        <v>1592681</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6348,46 +7023,46 @@
         <v>169</v>
       </c>
       <c r="D16" s="7">
-        <v>153538</v>
+        <v>144784</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>453</v>
+        <v>504</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="H16" s="7">
         <v>333</v>
       </c>
       <c r="I16" s="7">
-        <v>200351</v>
+        <v>185064</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>455</v>
+        <v>506</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>456</v>
+        <v>507</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>457</v>
+        <v>508</v>
       </c>
       <c r="M16" s="7">
         <v>502</v>
       </c>
       <c r="N16" s="7">
-        <v>353888</v>
+        <v>329848</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>458</v>
+        <v>509</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>181</v>
+        <v>510</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>459</v>
+        <v>511</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6399,46 +7074,46 @@
         <v>491</v>
       </c>
       <c r="D17" s="7">
-        <v>443631</v>
+        <v>413670</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>460</v>
+        <v>512</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>461</v>
+        <v>513</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="H17" s="7">
         <v>656</v>
       </c>
       <c r="I17" s="7">
-        <v>386277</v>
+        <v>353595</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>463</v>
+        <v>515</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>464</v>
+        <v>516</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>465</v>
+        <v>517</v>
       </c>
       <c r="M17" s="7">
         <v>1147</v>
       </c>
       <c r="N17" s="7">
-        <v>829909</v>
+        <v>767265</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>466</v>
+        <v>518</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>467</v>
+        <v>519</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>189</v>
+        <v>520</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6450,7 +7125,7 @@
         <v>660</v>
       </c>
       <c r="D18" s="7">
-        <v>597169</v>
+        <v>558454</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6465,7 +7140,7 @@
         <v>989</v>
       </c>
       <c r="I18" s="7">
-        <v>586628</v>
+        <v>538659</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6480,7 +7155,7 @@
         <v>1649</v>
       </c>
       <c r="N18" s="7">
-        <v>1183797</v>
+        <v>1097113</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6500,49 +7175,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
+        <v>147</v>
+      </c>
+      <c r="D19" s="7">
+        <v>96848</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="H19" s="7">
         <v>212</v>
       </c>
-      <c r="D19" s="7">
-        <v>145065</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="H19" s="7">
-        <v>325</v>
-      </c>
       <c r="I19" s="7">
-        <v>177783</v>
+        <v>103984</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>470</v>
+        <v>524</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>471</v>
+        <v>525</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>472</v>
+        <v>526</v>
       </c>
       <c r="M19" s="7">
-        <v>537</v>
+        <v>359</v>
       </c>
       <c r="N19" s="7">
-        <v>322848</v>
+        <v>200832</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>473</v>
+        <v>527</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>474</v>
+        <v>528</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>475</v>
+        <v>529</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6551,49 +7226,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>803</v>
+        <v>415</v>
       </c>
       <c r="D20" s="7">
-        <v>543201</v>
+        <v>265785</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>530</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>476</v>
+        <v>531</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>477</v>
+        <v>532</v>
       </c>
       <c r="H20" s="7">
-        <v>1366</v>
+        <v>613</v>
       </c>
       <c r="I20" s="7">
-        <v>838390</v>
+        <v>503638</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>478</v>
+        <v>533</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>479</v>
+        <v>534</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>480</v>
+        <v>535</v>
       </c>
       <c r="M20" s="7">
-        <v>2169</v>
+        <v>1028</v>
       </c>
       <c r="N20" s="7">
-        <v>1381590</v>
+        <v>769423</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>481</v>
+        <v>536</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>482</v>
+        <v>537</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>483</v>
+        <v>538</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6602,10 +7277,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1015</v>
+        <v>562</v>
       </c>
       <c r="D21" s="7">
-        <v>688266</v>
+        <v>362633</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6617,10 +7292,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1691</v>
+        <v>825</v>
       </c>
       <c r="I21" s="7">
-        <v>1016173</v>
+        <v>607622</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6632,10 +7307,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2706</v>
+        <v>1387</v>
       </c>
       <c r="N21" s="7">
-        <v>1704438</v>
+        <v>970255</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6649,55 +7324,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>833</v>
+        <v>65</v>
       </c>
       <c r="D22" s="7">
-        <v>881879</v>
+        <v>41361</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>484</v>
+        <v>539</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>485</v>
+        <v>540</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>486</v>
+        <v>541</v>
       </c>
       <c r="H22" s="7">
-        <v>1577</v>
+        <v>113</v>
       </c>
       <c r="I22" s="7">
-        <v>1148307</v>
+        <v>57563</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>487</v>
+        <v>542</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>488</v>
+        <v>543</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>489</v>
+        <v>544</v>
       </c>
       <c r="M22" s="7">
-        <v>2410</v>
+        <v>178</v>
       </c>
       <c r="N22" s="7">
-        <v>2030185</v>
+        <v>98925</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>297</v>
+        <v>545</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>490</v>
+        <v>546</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>491</v>
+        <v>547</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6706,49 +7381,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2519</v>
+        <v>388</v>
       </c>
       <c r="D23" s="7">
-        <v>2478730</v>
+        <v>237993</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>492</v>
+        <v>548</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>493</v>
+        <v>549</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>494</v>
+        <v>550</v>
       </c>
       <c r="H23" s="7">
-        <v>3736</v>
+        <v>753</v>
       </c>
       <c r="I23" s="7">
-        <v>2623681</v>
+        <v>359796</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>495</v>
+        <v>551</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>496</v>
+        <v>552</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>497</v>
+        <v>553</v>
       </c>
       <c r="M23" s="7">
-        <v>6255</v>
+        <v>1141</v>
       </c>
       <c r="N23" s="7">
-        <v>5102411</v>
+        <v>597788</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>305</v>
+        <v>554</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>498</v>
+        <v>555</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>499</v>
+        <v>556</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6757,63 +7432,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>453</v>
+      </c>
+      <c r="D24" s="7">
+        <v>279354</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>866</v>
+      </c>
+      <c r="I24" s="7">
+        <v>417359</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1319</v>
+      </c>
+      <c r="N24" s="7">
+        <v>696713</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>833</v>
+      </c>
+      <c r="D25" s="7">
+        <v>862713</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1577</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1084234</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2410</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1946946</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2519</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2573819</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3736</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2545580</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6255</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5119400</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3352</v>
       </c>
-      <c r="D24" s="7">
-        <v>3360609</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3436532</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5313</v>
       </c>
-      <c r="I24" s="7">
-        <v>3771988</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3629814</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8665</v>
       </c>
-      <c r="N24" s="7">
-        <v>7132596</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="N27" s="7">
+        <v>7066346</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
